--- a/2.xlsx
+++ b/2.xlsx
@@ -122,7 +122,7 @@
     <t>A04</t>
   </si>
   <si>
-    <t>CD361</t>
+    <t>CD36</t>
   </si>
   <si>
     <t>A05</t>
@@ -412,18 +412,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###0.00;\-###0.00"/>
     <numFmt numFmtId="177" formatCode="###0;\-###0"/>
-    <numFmt numFmtId="178" formatCode="###0.0;\-###0.0"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="###0.000;\-###0.000"/>
-    <numFmt numFmtId="181" formatCode="###0.00000;\-###0.00000"/>
+    <numFmt numFmtId="178" formatCode="###0.000;\-###0.000"/>
+    <numFmt numFmtId="179" formatCode="###0.00000;\-###0.00000"/>
+    <numFmt numFmtId="180" formatCode="###0.0;\-###0.0"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
@@ -441,13 +441,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8.25"/>
-      <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -467,9 +478,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,32 +561,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,76 +589,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -636,55 +631,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,19 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +721,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,6 +822,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,8 +866,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -865,21 +886,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,8 +908,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,165 +922,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,13 +1107,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1138,23 +1133,23 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1163,18 +1158,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1528,11 +1523,11 @@
   <dimension ref="A1:AS73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12" customHeight="1"/>
@@ -1546,10 +1541,10 @@
     <col min="8" max="8" width="11.1666666666667" style="7" customWidth="1"/>
     <col min="9" max="9" width="10" style="7" customWidth="1"/>
     <col min="10" max="10" width="11.1666666666667" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6666666666667" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="13.6666666666667" style="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.6666666666667" style="8" customWidth="1"/>
+    <col min="13" max="14" width="13.6666666666667" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="10" customWidth="1"/>
     <col min="16" max="16" width="6.55555555555556" style="6" customWidth="1"/>
     <col min="17" max="17" width="7.5" style="11" customWidth="1"/>
     <col min="18" max="21" width="7.5" style="11"/>
